--- a/Personal accounts/IncomeExpenseCalculations.xlsx
+++ b/Personal accounts/IncomeExpenseCalculations.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pjd\Dairy\Personal accounts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pjd\Dairy_git\Personal accounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Jan 2019" sheetId="1" r:id="rId1"/>
-    <sheet name="After land purchase-" sheetId="2" r:id="rId2"/>
+    <sheet name="Roseland" sheetId="3" r:id="rId1"/>
+    <sheet name="Jan 2019" sheetId="1" r:id="rId2"/>
+    <sheet name="After land purchase-" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>Home Loan</t>
   </si>
@@ -76,6 +77,45 @@
   </si>
   <si>
     <t>LIC</t>
+  </si>
+  <si>
+    <t>Pesticide weekly once</t>
+  </si>
+  <si>
+    <t>DAP</t>
+  </si>
+  <si>
+    <t>Labour for flower plucking</t>
+  </si>
+  <si>
+    <t>Kalai pudunga</t>
+  </si>
+  <si>
+    <t>Kalai kolli</t>
+  </si>
+  <si>
+    <t>Labour - Lourdu</t>
+  </si>
+  <si>
+    <t>Labour - X Men</t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Sanda kozhi</t>
+  </si>
+  <si>
+    <t>Current bill</t>
+  </si>
+  <si>
+    <t>Cable bill</t>
+  </si>
+  <si>
+    <t>Petrol</t>
   </si>
 </sst>
 </file>
@@ -396,9 +436,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <f>SUM(B2:B17)</f>
+        <v>66500</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <f>SUM(E2:E10)</f>
+        <v>85250</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1">
+        <f>E1-B1</f>
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <f>75*50*15</f>
+        <v>56250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <f>400*15</f>
+        <v>6000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <f>500*15</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -550,7 +732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
